--- a/content/species/data/nba_example_rli_data_trim.xlsx
+++ b/content/species/data/nba_example_rli_data_trim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza.sharepoint.com/sites/RedListsquad/Shared Documents/General/NBA 2025/RLI input data/Graph input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57D3966-26DA-404F-9A70-C9317CB2D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA782C-7206-4BC4-BA54-1F26FA478DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -71,15 +71,6 @@
     <t>Butterflies</t>
   </si>
   <si>
-    <t>Dragonflies &amp; Damselflies</t>
-  </si>
-  <si>
-    <t>Freshwater Crabs</t>
-  </si>
-  <si>
-    <t>Freshwater Fishes</t>
-  </si>
-  <si>
     <t>Mammals</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
   </si>
   <si>
     <t>Reptiles</t>
-  </si>
-  <si>
-    <t>Sharks (incl. Rays &amp; Chimaeras)</t>
   </si>
   <si>
     <t>Sparids</t>
@@ -103,12 +91,24 @@
   <si>
     <t>Aggregate</t>
   </si>
+  <si>
+    <t>Dragonflies &amp; damselflies</t>
+  </si>
+  <si>
+    <t>Freshwater crabs</t>
+  </si>
+  <si>
+    <t>Freshwater fishes</t>
+  </si>
+  <si>
+    <t>Sharks (incl. rays &amp; chimaeras)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,9 +662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,7 +702,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -808,7 +808,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,17 +960,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1170,9 +1170,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2006</v>
@@ -1190,9 +1190,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1210,9 +1210,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2007</v>
@@ -1230,9 +1230,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -1250,9 +1250,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2007</v>
@@ -1270,9 +1270,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1290,9 +1290,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2004</v>
@@ -1310,9 +1310,9 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -1330,9 +1330,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2025</v>
@@ -1350,9 +1350,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1990</v>
@@ -1370,9 +1370,9 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -1390,9 +1390,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>2025</v>
@@ -1410,9 +1410,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>1990</v>
@@ -1430,9 +1430,9 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -1450,9 +1450,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1470,9 +1470,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>2005</v>
@@ -1490,9 +1490,9 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>2020</v>
@@ -1510,9 +1510,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>2009</v>
@@ -1530,9 +1530,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>2025</v>
@@ -1550,9 +1550,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3">
         <v>2016</v>
@@ -1570,9 +1570,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>2008</v>
@@ -1590,9 +1590,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>2024</v>
@@ -1610,9 +1610,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>1990</v>
@@ -1627,9 +1627,9 @@
         <v>0.92064776451239305</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>1991</v>
@@ -1644,9 +1644,9 @@
         <v>0.92040904775762</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>1992</v>
@@ -1661,9 +1661,9 @@
         <v>0.91967230064952599</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>1993</v>
@@ -1678,9 +1678,9 @@
         <v>0.91877354625164798</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>1994</v>
@@ -1695,9 +1695,9 @@
         <v>0.91856880622711401</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>1995</v>
@@ -1712,9 +1712,9 @@
         <v>0.91766591902155903</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>1996</v>
@@ -1729,9 +1729,9 @@
         <v>0.91701790746890399</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>1997</v>
@@ -1746,9 +1746,9 @@
         <v>0.91567553024912096</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>1998</v>
@@ -1763,9 +1763,9 @@
         <v>0.91523524726599703</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>1999</v>
@@ -1780,9 +1780,9 @@
         <v>0.91430971098273905</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -1797,9 +1797,9 @@
         <v>0.91337078861933596</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>2001</v>
@@ -1814,9 +1814,9 @@
         <v>0.91281698051043103</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>2002</v>
@@ -1831,9 +1831,9 @@
         <v>0.91185288691160504</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>2003</v>
@@ -1848,9 +1848,9 @@
         <v>0.91122916764677497</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>2004</v>
@@ -1865,9 +1865,9 @@
         <v>0.91049922189039201</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>2005</v>
@@ -1882,9 +1882,9 @@
         <v>0.90974463513832604</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>2006</v>
@@ -1899,9 +1899,9 @@
         <v>0.90900506057990305</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50">
         <v>2007</v>
@@ -1916,9 +1916,9 @@
         <v>0.90820474540512897</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>2008</v>
@@ -1933,9 +1933,9 @@
         <v>0.90723709066604996</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>2009</v>
@@ -1950,9 +1950,9 @@
         <v>0.90666452795657404</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>2010</v>
@@ -1967,9 +1967,9 @@
         <v>0.90525217466992702</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>2011</v>
@@ -1984,9 +1984,9 @@
         <v>0.90347119133092202</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <v>2012</v>
@@ -2001,9 +2001,9 @@
         <v>0.90213563833228505</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B56">
         <v>2013</v>
@@ -2018,9 +2018,9 @@
         <v>0.90044022356361497</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B57">
         <v>2014</v>
@@ -2035,9 +2035,9 @@
         <v>0.89898373451215396</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>2015</v>
@@ -2052,9 +2052,9 @@
         <v>0.89707683471961397</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>2016</v>
@@ -2069,9 +2069,9 @@
         <v>0.89578550460291795</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -2086,9 +2086,9 @@
         <v>0.89325626435041094</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B61">
         <v>2018</v>
@@ -2103,9 +2103,9 @@
         <v>0.89144677660334704</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -2120,9 +2120,9 @@
         <v>0.88914091448122401</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63">
         <v>2020</v>
@@ -2137,9 +2137,9 @@
         <v>0.88619886128448599</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B64">
         <v>2021</v>
@@ -2154,9 +2154,9 @@
         <v>0.88188897619747497</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1">
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B65">
         <v>2022</v>
@@ -2171,9 +2171,9 @@
         <v>0.87924298407622403</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1">
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -2188,9 +2188,9 @@
         <v>0.87610515337057004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1">
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B67">
         <v>2024</v>
@@ -2205,9 +2205,9 @@
         <v>0.87401277381567</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1">
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>2025</v>
@@ -2229,15 +2229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
@@ -2248,6 +2239,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2523,13 +2523,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>